--- a/figs/fig_markov_model/Clinical_states.xlsx
+++ b/figs/fig_markov_model/Clinical_states.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamusson/Desktop/Analytics/R/Dissertation/Markov_DAG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamusson/Desktop/Analytics/R/Dissertation/figs/fig_markov_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65E9542-B45F-A84A-95E5-7BBBCEA5C07F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C52C23C-1E05-144D-8A7D-E48836518D4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{DBD245F2-2450-0C48-9F3A-BADB08A6AFB5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{DBD245F2-2450-0C48-9F3A-BADB08A6AFB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
     <t>Detected Stage IV: Year 5</t>
   </si>
   <si>
-    <t>Cancer Survivor</t>
+    <t>Survivor</t>
   </si>
 </sst>
 </file>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F176B67-F3F3-1543-8F9F-9A51A8F33690}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
